--- a/Phase2/InstancesV2/InstanceAutunV2.xlsx
+++ b/Phase2/InstancesV2/InstanceAutunV2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eccyp\Documents\administratif_CS\2A\ST7 Optimisation Transport\DecisionBrain\InstancesV2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eccyp\Documents\administratif_CS\2A\ST7 Optimisation Transport\DecisionBrain\projetST7\Phase2\InstancesV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A93BBDD-8573-4708-B456-E965EB63FA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE91F45A-0B84-446F-900D-3C1A43329C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{745759C5-7123-8144-B92E-2C75C62BB0A9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{745759C5-7123-8144-B92E-2C75C62BB0A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>Latitude</t>
   </si>
@@ -114,7 +114,10 @@
     <t>6:00pm</t>
   </si>
   <si>
-    <t>9:00am</t>
+    <t>11:59am</t>
+  </si>
+  <si>
+    <t>1:00pm</t>
   </si>
 </sst>
 </file>
@@ -171,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -183,6 +186,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,7 +503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9C2C5F-E1A7-F54F-815D-9D441051269D}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="139" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1084,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AD92C6-B4F4-614C-BEE0-83D086C441D2}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1105,7 +1109,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -1113,6 +1117,20 @@
       <c r="C2" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
